--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_006.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_006.xlsx
@@ -31,322 +31,325 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
-  </si>
-  <si>
-    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
-  </si>
-  <si>
-    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295001AA1.02) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
-  </si>
-  <si>
-    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
-  </si>
-  <si>
-    <t>(295024EK2.08) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) ADS</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
-  </si>
-  <si>
-    <t>(295016AK2.11) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295006AA2.04) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295026EK2.11) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
-  </si>
-  <si>
-    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
-  </si>
-  <si>
-    <t>(295013AK2.03) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) RCIC/HPCI operation</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295033EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
-  </si>
-  <si>
-    <t>(295017AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AK2.01) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295031EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure coolant injection (RHR)</t>
+  </si>
+  <si>
+    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
+  </si>
+  <si>
+    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AK2.13) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295023AA1.04) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Radiation monitoring equipment</t>
+  </si>
+  <si>
+    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
+  </si>
+  <si>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295020AK2.09) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t>(295022AA1.01) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295013AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Localized heating</t>
+  </si>
+  <si>
+    <t>(500000EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of hydrogen and oxygen recombiners</t>
+  </si>
+  <si>
+    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
+  </si>
+  <si>
+    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(212000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(211000A2.02) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of squib valves to open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(300000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(259002K4.05) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) P sat/T sat (compensation)</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291004K1.11) PUMPS (CFR: 41.3) (CENTRIFUGAL) Definition of pump shutoff head</t>
+  </si>
+  <si>
+    <t>(223002A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Condenser vacuum</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
   </si>
   <si>
     <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
   </si>
   <si>
-    <t>(203000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
-  </si>
-  <si>
-    <t>(215003K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(263000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Battery ventilation</t>
-  </si>
-  <si>
-    <t>(239002K4.10) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Methods for determining position of SRV</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(209001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray pressure</t>
-  </si>
-  <si>
-    <t>(215004K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
-  </si>
-  <si>
-    <t>(261000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t>(259002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) High drywell pressure</t>
-  </si>
-  <si>
-    <t>(211000K4.05) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of boron upon injection into the vessel</t>
-  </si>
-  <si>
-    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(217000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(209002K3.09) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Override of drywell pressure interlock</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291002K1.09) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Modes of failure</t>
-  </si>
-  <si>
-    <t>(205000A3.02) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Pump operation</t>
-  </si>
-  <si>
-    <t>(203000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level</t>
-  </si>
-  <si>
-    <t>(215003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(263000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(290002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Recirculation system</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290003A3.02) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(201001A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(204000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SLCS</t>
-  </si>
-  <si>
-    <t>(202002K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Flow controller failure</t>
-  </si>
-  <si>
-    <t>(234000K4.08) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Preventing draining of water from the inclined fuel transfer system</t>
-  </si>
-  <si>
-    <t>(271000A4.09) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Offgas system controls/components</t>
-  </si>
-  <si>
-    <t>(216000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Recirculation flow effects on level indications</t>
-  </si>
-  <si>
-    <t>(272000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Radiations levels</t>
-  </si>
-  <si>
-    <t>(233000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Area radiation levels</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+    <t>(217000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
+  </si>
+  <si>
+    <t>(510000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(215003K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Recorder</t>
+  </si>
+  <si>
+    <t>(261000K4.06) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Charcoal bed retention</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
+  </si>
+  <si>
+    <t>(259001K4.05) Knowledge of (SF2 FWS) FEEDWATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) RFP protection</t>
+  </si>
+  <si>
+    <t>(230000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) System lineup</t>
+  </si>
+  <si>
+    <t>(288000A4.04) Ability to manually operate and/or monitor the (SF9 PVS) PLANT VENTILATION SYSTEMS in the control room: (CFR: 41.4 / 41.7 / 45.5 to 45.8) Building differential pressure</t>
+  </si>
+  <si>
+    <t>(271000A3.08) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) Fire suppression</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (291001K1.11) VALVES (CFR: 41.3) Operation of valves and verification of position</t>
+  </si>
+  <si>
+    <t>(268000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Offsite release (liquid/gaseous release)</t>
+  </si>
+  <si>
+    <t>(272000A2.06) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Downscale trips</t>
+  </si>
+  <si>
+    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
+  </si>
+  <si>
+    <t>(245000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) EHC system</t>
+  </si>
+  <si>
+    <t>(226001K3.03) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber components, continued operation with elevated pressure or temperature or level</t>
+  </si>
+  <si>
+    <t>(201003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.10) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Explain procedures for adjusting reactor period during the intermediate phase of startup</t>
-  </si>
-  <si>
-    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(293009K1.42) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Increase in reactor pressure</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.10) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Recirculation system/RPV differential temperatures</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223001A2.11) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal suppression pool level</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215001A2.02) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High primary containment/drywell pressure (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
+  </si>
+  <si>
+    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
+  </si>
+  <si>
+    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(293008K1.35) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe problems that thermal stratification can cause</t>
+  </si>
+  <si>
+    <t>(293009K1.38) CORE THERMAL LIMITS (CFR: 41.14) (PRECONDITIONING INTERIM OPERATING MANAGEMENT RECOMMENDATIONS (PCIOMR)) State the items measured for each of the three core thermal limits</t>
+  </si>
+  <si>
+    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295001AA2.08) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.16) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(256000A2.12) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of component cooling water systems</t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(223001A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell pressure</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A4</t>
   </si>
   <si>
     <t>A3</t>
@@ -358,9 +361,6 @@
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295016</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295004</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
     <t>295029</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>256000</t>
   </si>
   <si>
     <t>201001</t>
   </si>
   <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
     <t>223001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>215001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>4.1</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3.9</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2024,7 +2024,7 @@
         <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
